--- a/Literature.xlsx
+++ b/Literature.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyeongsunkim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyeongsunkim\OneDrive - SNU\Shared\Scour\0 KyeongSunKim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCE7B20-7416-4D87-A6F4-D5AFDEB1F520}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{ACCE7B20-7416-4D87-A6F4-D5AFDEB1F520}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{34C026BA-C711-4A59-AF3D-1CC036C0F162}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,10 +43,6 @@
     <t>Determination of scoured bridge natural frequencies with soil-structure interaction</t>
   </si>
   <si>
-    <t>Study Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>An investigation into the effect of scour on the natural frequency of an Offshore Wind Turbine</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -75,10 +71,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FE, model</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Kasun D Kariyawasam</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -135,10 +127,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3D FE, LSTM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Closed Form Solutions for Predicting Lateral Response of Tripod Suction Pile for Offshore Wind Turbine Foundation</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -204,6 +192,18 @@
   </si>
   <si>
     <t>Cited</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FE, Model</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FE, LSTM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +633,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -649,7 +649,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -661,7 +661,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -681,7 +681,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
@@ -695,16 +695,16 @@
         <v>2015</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -715,16 +715,16 @@
         <v>2012</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -735,16 +735,16 @@
         <v>2020</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -755,16 +755,16 @@
         <v>2020</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -775,16 +775,16 @@
         <v>2022</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -795,16 +795,16 @@
         <v>2020</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -815,16 +815,16 @@
         <v>2022</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -835,16 +835,16 @@
         <v>2020</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -855,16 +855,16 @@
         <v>2014</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -875,16 +875,16 @@
         <v>2021</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -895,16 +895,16 @@
         <v>2020</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -915,16 +915,16 @@
         <v>2017</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -935,16 +935,16 @@
         <v>2020</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -955,16 +955,16 @@
         <v>2019</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Literature.xlsx
+++ b/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyeongsunkim\OneDrive - SNU\Shared\Scour\0 KyeongSunKim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{ACCE7B20-7416-4D87-A6F4-D5AFDEB1F520}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{34C026BA-C711-4A59-AF3D-1CC036C0F162}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="102_{7E4C660B-8BA3-466B-8112-DBA5A84B0903}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA135D14-1204-499D-B5B1-9DBF8C704940}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="109">
   <si>
     <t>Author</t>
   </si>
@@ -28,18 +28,12 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
     <t>Shen-Haw Ju</t>
   </si>
   <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
     <t>Determination of scoured bridge natural frequencies with soil-structure interaction</t>
   </si>
   <si>
@@ -51,10 +45,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Ireland</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Vibration-Based Method and Sensor for Monitoring of Bridge Scour</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -63,30 +53,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>US</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Field</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Kasun D Kariyawasam</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>France</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Assessment of bridge natural frequency as an indicator of scour using centrifuge modelling</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Centrifuge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Study on Dynamic Behavior of Bridge Pier by Impact Load Test Considering Scour</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -95,10 +69,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Korea</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Influence of soil properties on the shift in natural frequencies of a monopile-supported 5MW offshore wind turbine under scour</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -115,10 +85,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Natural Frequency Degradation Prediction for Offshore Wind Turbine Structures</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -159,10 +125,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FE, Field</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Xuefei Wang</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -171,10 +133,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>China</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Centrifuge modelling of drained pullout and compression cyclic behaviour of suction bucket</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -187,23 +145,311 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UWA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Cited</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FE, Model</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FE, LSTM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method</t>
+    <t>Effect of Scour on the Natural Frequency Responses of Bridge Piers: Development of a Scour Depth Sensor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nissrine Boujia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Investigation of the Changes in the Natural Frequency of a Pile affected by Scour</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prendergast</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update of manual on scour at bridges and other hydraulic structures</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kitchen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Natural frequency of offshore wind turbines on rigid and flexible monopiles in cohesionless soils with linear stiffness distribution</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saeed D-Alamouti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>An analytical model to predict the natural frequency of offshore wind turbines on three-spring flexible foundations using two different beam models</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arany</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Structural vibration monitoring and operational modal analysis of offshore wind turbine structure</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dong Xiaofeng</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monopile head stiffness for servicibility limit state calculations in assessing the natural frequency of offshore wind turbines</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aissa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Compendium of Formulae for Natural Frequencies of Offshore Wind Turbine Structures</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Varghese</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Similitude relationships for physical modelling of monopile-supported offshore wind turbines</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bhattacharya</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Semi Analytical Model for the Dynamic Behavior of Offshore Wind Turbine with Flexible Foundation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mostafa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Accurate Estimation of the Eigenfrequency of an Offshore Wind Turbine Considered as the Stepped Euler-Bernoulli Beam in Three-Spring Flexible Foundation Using the Power Series Method</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mouafo Teifouet Robinson</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stability analysis of suction bucket foundations under wave cyclic loading and scouring</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xuguang Chen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parametric Study on Scouring around Suction Bucket Foundation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sungho Park</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultimate Limit State Risk Assessment of Penta Pod Suction Bucket Support Structures for Offshore Wind Turbine due to Scour</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Young Jin Kim</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Investigation of scour effects on the vertical bearing capacity of suction caissons considering stress history</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shu Zhu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scour influence on the fatigue life of operational monopile-supported offshore wind turbines</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rezaei</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Investigation of scour effects on lateral behaviors of suction caisson</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinzhong Liu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model Test Study on Horizontal Static Loading of Suction Bucket Foundation under Different Scour Conditions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model testing of foundations for offshore wind turbines</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Felipe AV Jara</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foundations for offshore wind turbines</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Byrne, Houlsby</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect of scour on the behavior of a combined loaded monopile in sand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qingpeng Li</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analysis of Laterally Loaded Piles in Sand Considering Scour Hole Dimensions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheng Lin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scour effects on p-y curves for shallowly embedded piles in sand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>W Qi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deflection-Based Bearing Capacity of Suction Caisson Foundations of Offshore Wind Turbines</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B Zhu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modelling of foundation response to scour and scour protection for offshore wind turbine structures</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mayall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lateral capacity assessment of offshore wind suction bucket foundation in clay via centrifuge modelling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xuefei Wang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Installation and lateral loading tests of suction caissons in silt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhubin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A comparison of field and laboratory tests of caisson foundations in sand and clay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kelly, Houlsby</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long-Term Lateral Cyclic Response of Suction Caisson Foundations in Sand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B Zhu,Houlsby</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stiffness of Flexible Caisson Foundations Embedded in Nonhomogeneous Elastic Soil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doherty</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behavior of a Monopod Bucket Foundation Subjected to Combined Moment and Horizontal Loads in Silty Sand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y Choo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bearing Capacity of a Monopod Bucket Foundation for Offshore Wind Towers - Centrifuge and Numerical Modeling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dong-Joon Kim</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model Tests for Tilting Control of Suction Bucket Foundation for Offshore Wind Turbine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>You-seok Kim</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The effects of Scour on the design of Offshore Wind Turbines</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>J Tempel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Centrifuge test and numerical modeling for a suction bucket monopod foundation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>J Choi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluation of the Moment Bearing Capacity of Offshore Bucket Platforms in Sand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sung-Ryul Kim</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suction Bucket Pile–Soil–Structure Interactions of Offshore Wind Turbine Jacket Foundations Using Coupled Dynamic Analysis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plodpradit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scaling issues in centrifuge modelling of monopiles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Klinkovort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Centrifuge Modeling of the Impact of Local and Global Scour Erosion on the Monotonic Lateral Response of a Monopile in Sand</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +457,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,12 +469,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -249,13 +497,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -299,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -311,9 +552,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -630,26 +868,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="104.125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="3" max="3" width="24.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="124.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -660,14 +896,8 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>41</v>
       </c>
@@ -675,19 +905,13 @@
         <v>2013</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>84</v>
       </c>
@@ -695,19 +919,13 @@
         <v>2015</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>80</v>
       </c>
@@ -715,19 +933,13 @@
         <v>2012</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>9</v>
       </c>
@@ -735,19 +947,13 @@
         <v>2020</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -755,19 +961,13 @@
         <v>2020</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -775,19 +975,13 @@
         <v>2022</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -795,19 +989,13 @@
         <v>2020</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -815,19 +1003,13 @@
         <v>2022</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -835,39 +1017,27 @@
         <v>2020</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3">
         <v>2014</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -875,19 +1045,13 @@
         <v>2021</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -895,19 +1059,13 @@
         <v>2020</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>45</v>
       </c>
@@ -915,19 +1073,13 @@
         <v>2017</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -935,19 +1087,13 @@
         <v>2020</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="3">
         <v>18</v>
       </c>
@@ -955,16 +1101,556 @@
         <v>2019</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>87</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3">
+        <v>41</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>59</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D21" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>61</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="4" t="s">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>16</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>104</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>0</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>14</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>7</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>6</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>88</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2006</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>343</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3">
+        <v>9</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3">
+        <v>60</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>72</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>30</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>3</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
         <v>17</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>41</v>
+      <c r="B42" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>78</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>143</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2006</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>141</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3">
+        <v>4</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3">
+        <v>4</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3">
+        <v>22</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3">
+        <v>1</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3">
+        <v>0</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3">
+        <v>7</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3">
+        <v>35</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3">
+        <v>18</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
